--- a/日付用.xlsx
+++ b/日付用.xlsx
@@ -25,8 +25,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="m&quot;月&quot;d&quot;日&quot;\ &quot;(&quot;aaa&quot;)&quot;"/>
-    <numFmt numFmtId="179" formatCode="h&quot;時&quot;mm&quot;分&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;\ &quot;(&quot;aaa&quot;)&quot;"/>
+    <numFmt numFmtId="177" formatCode="h&quot;時&quot;mm&quot;分&quot;;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -66,8 +66,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -375,7 +375,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -398,6 +398,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1">
+        <f>A1+1</f>
         <v>42098</v>
       </c>
       <c r="E1" s="2">

--- a/日付用.xlsx
+++ b/日付用.xlsx
@@ -25,10 +25,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;\ &quot;(&quot;aaa&quot;)&quot;"/>
     <numFmt numFmtId="177" formatCode="h&quot;時&quot;mm&quot;分&quot;;@"/>
+    <numFmt numFmtId="178" formatCode="m&quot;月&quot;d&quot;日&quot;&quot;(&quot;aaa&quot;)&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,6 +42,13 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -64,10 +71,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -375,29 +385,29 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1">
+      <c r="A1" s="4">
         <v>42097</v>
       </c>
       <c r="B1" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1">
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4">
         <f>A1+1</f>
         <v>42098</v>
       </c>
@@ -406,17 +416,17 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <f>A1+1</f>
         <v>42098</v>
       </c>
       <c r="B2" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
         <f>D1+1</f>
         <v>42099</v>
       </c>
@@ -425,17 +435,17 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <f t="shared" ref="A3:A14" si="0">A2+1</f>
         <v>42099</v>
       </c>
       <c r="B3" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
         <f t="shared" ref="D3:D14" si="1">D2+1</f>
         <v>42100</v>
       </c>
@@ -444,17 +454,17 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <f t="shared" si="0"/>
         <v>42100</v>
       </c>
       <c r="B4" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
         <f t="shared" si="1"/>
         <v>42101</v>
       </c>
@@ -463,17 +473,17 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>42101</v>
       </c>
       <c r="B5" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
         <f t="shared" si="1"/>
         <v>42102</v>
       </c>
@@ -482,17 +492,17 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
+      <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>42102</v>
       </c>
       <c r="B6" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
         <f t="shared" si="1"/>
         <v>42103</v>
       </c>
@@ -501,17 +511,17 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
+      <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>42103</v>
       </c>
       <c r="B7" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
         <f t="shared" si="1"/>
         <v>42104</v>
       </c>
@@ -520,17 +530,17 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>42104</v>
       </c>
       <c r="B8" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="C8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
         <f t="shared" si="1"/>
         <v>42105</v>
       </c>
@@ -539,17 +549,17 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
+      <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>42105</v>
       </c>
       <c r="B9" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="C9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
         <f t="shared" si="1"/>
         <v>42106</v>
       </c>
@@ -558,17 +568,17 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
+      <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>42106</v>
       </c>
       <c r="B10" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
         <f t="shared" si="1"/>
         <v>42107</v>
       </c>
@@ -577,17 +587,17 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
+      <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>42107</v>
       </c>
       <c r="B11" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
         <f t="shared" si="1"/>
         <v>42108</v>
       </c>
@@ -596,17 +606,17 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
+      <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>42108</v>
       </c>
       <c r="B12" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="C12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
         <f t="shared" si="1"/>
         <v>42109</v>
       </c>
@@ -615,17 +625,17 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
+      <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>42109</v>
       </c>
       <c r="B13" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
         <f t="shared" si="1"/>
         <v>42110</v>
       </c>
@@ -634,17 +644,17 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
+      <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>42110</v>
       </c>
       <c r="B14" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="C14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
         <f t="shared" si="1"/>
         <v>42111</v>
       </c>

--- a/日付用.xlsx
+++ b/日付用.xlsx
@@ -25,10 +25,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="h&quot;時&quot;mm&quot;分&quot;;@"/>
-    <numFmt numFmtId="178" formatCode="m&quot;月&quot;d&quot;日&quot;&quot;(&quot;aaa&quot;)&quot;"/>
+    <numFmt numFmtId="176" formatCode="h&quot;時&quot;mm&quot;分&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;&quot;(&quot;aaa&quot;)&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,11 +44,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10.5"/>
       <color theme="1"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -71,13 +78,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -385,20 +393,21 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="4">
+      <c r="A1" s="1">
         <v>42097</v>
       </c>
       <c r="B1" s="2">
@@ -407,7 +416,7 @@
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="1">
         <f>A1+1</f>
         <v>42098</v>
       </c>
@@ -416,7 +425,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+      <c r="A2" s="1">
         <f>A1+1</f>
         <v>42098</v>
       </c>
@@ -426,7 +435,7 @@
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="1">
         <f>D1+1</f>
         <v>42099</v>
       </c>
@@ -435,7 +444,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+      <c r="A3" s="1">
         <f t="shared" ref="A3:A14" si="0">A2+1</f>
         <v>42099</v>
       </c>
@@ -445,7 +454,7 @@
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="1">
         <f t="shared" ref="D3:D14" si="1">D2+1</f>
         <v>42100</v>
       </c>
@@ -454,7 +463,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+      <c r="A4" s="1">
         <f t="shared" si="0"/>
         <v>42100</v>
       </c>
@@ -464,7 +473,7 @@
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="1">
         <f t="shared" si="1"/>
         <v>42101</v>
       </c>
@@ -473,7 +482,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+      <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>42101</v>
       </c>
@@ -483,7 +492,7 @@
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="1">
         <f t="shared" si="1"/>
         <v>42102</v>
       </c>
@@ -492,7 +501,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
+      <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>42102</v>
       </c>
@@ -502,7 +511,7 @@
       <c r="C6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="1">
         <f t="shared" si="1"/>
         <v>42103</v>
       </c>
@@ -511,7 +520,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
+      <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>42103</v>
       </c>
@@ -521,7 +530,7 @@
       <c r="C7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="1">
         <f t="shared" si="1"/>
         <v>42104</v>
       </c>
@@ -530,7 +539,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
+      <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>42104</v>
       </c>
@@ -540,7 +549,7 @@
       <c r="C8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1">
         <f t="shared" si="1"/>
         <v>42105</v>
       </c>
@@ -549,7 +558,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
+      <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>42105</v>
       </c>
@@ -559,7 +568,7 @@
       <c r="C9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="1">
         <f t="shared" si="1"/>
         <v>42106</v>
       </c>
@@ -568,7 +577,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
+      <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>42106</v>
       </c>
@@ -578,7 +587,7 @@
       <c r="C10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="1">
         <f t="shared" si="1"/>
         <v>42107</v>
       </c>
@@ -587,7 +596,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
+      <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>42107</v>
       </c>
@@ -597,7 +606,7 @@
       <c r="C11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="1">
         <f t="shared" si="1"/>
         <v>42108</v>
       </c>
@@ -606,7 +615,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
+      <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>42108</v>
       </c>
@@ -616,7 +625,7 @@
       <c r="C12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="1">
         <f t="shared" si="1"/>
         <v>42109</v>
       </c>
@@ -625,7 +634,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
+      <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>42109</v>
       </c>
@@ -635,7 +644,7 @@
       <c r="C13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="1">
         <f t="shared" si="1"/>
         <v>42110</v>
       </c>
@@ -644,7 +653,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
+      <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>42110</v>
       </c>
@@ -654,7 +663,7 @@
       <c r="C14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="1">
         <f t="shared" si="1"/>
         <v>42111</v>
       </c>
